--- a/parseExcel/files/lakalaProvince.xlsx
+++ b/parseExcel/files/lakalaProvince.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26408"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="11340" windowHeight="15620"/>
+    <workbookView xWindow="3500" yWindow="440" windowWidth="11340" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
